--- a/data/trans_orig/P14B05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E43F33-63E5-4BEB-9B9F-1AE9DFBA2D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A81597-36A2-44E1-9B9A-BF501A38B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DEF01E8-BF5C-4190-8A99-38F7C196429E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5062447F-A2D6-4BC1-8C5B-AE52492FE266}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="229">
   <si>
     <t>Población cuya colitis le limita en 2012 (Tasa respuesta: 1,23%)</t>
   </si>
@@ -99,7 +99,7 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>61,48%</t>
+    <t>69,09%</t>
   </si>
   <si>
     <t>20,15%</t>
@@ -120,7 +120,7 @@
     <t>7,57%</t>
   </si>
   <si>
-    <t>38,52%</t>
+    <t>30,91%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -162,19 +162,19 @@
     <t>76,89%</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -183,19 +183,19 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -207,19 +207,19 @@
     <t>49,95%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>37,02%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -228,19 +228,19 @@
     <t>50,05%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>62,98%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -252,10 +252,13 @@
     <t>24,26%</t>
   </si>
   <si>
+    <t>74,56%</t>
+  </si>
+  <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>72,47%</t>
   </si>
   <si>
     <t>64,93%</t>
@@ -264,10 +267,13 @@
     <t>75,74%</t>
   </si>
   <si>
+    <t>25,44%</t>
+  </si>
+  <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>27,53%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -276,55 +282,55 @@
     <t>50,74%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>30,89%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>69,11%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -342,7 +348,7 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>27,7%</t>
+    <t>37,04%</t>
   </si>
   <si>
     <t>35,56%</t>
@@ -357,61 +363,61 @@
     <t>24,89%</t>
   </si>
   <si>
-    <t>72,3%</t>
+    <t>62,96%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -429,19 +435,19 @@
     <t>57,82%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>72,4%</t>
@@ -453,19 +459,19 @@
     <t>42,18%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -510,19 +516,19 @@
     <t>26,71%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -531,19 +537,19 @@
     <t>73,29%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>75,41%</t>
@@ -564,13 +570,13 @@
     <t>26,43%</t>
   </si>
   <si>
-    <t>81,23%</t>
+    <t>93,77%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>80,56%</t>
+    <t>81,19%</t>
   </si>
   <si>
     <t>38,11%</t>
@@ -579,13 +585,13 @@
     <t>73,57%</t>
   </si>
   <si>
-    <t>18,77%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>61,03%</t>
   </si>
   <si>
-    <t>19,44%</t>
+    <t>18,81%</t>
   </si>
   <si>
     <t>21,83%</t>
@@ -627,19 +633,19 @@
     <t>44,25%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>61,66%</t>
@@ -651,73 +657,73 @@
     <t>55,75%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>58,27%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1835430-B477-4E42-AD70-043882A2ADDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C59EE71-4283-429B-81B6-B3E0498C00F9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2031,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2040,13 +2046,13 @@
         <v>2038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2067,7 @@
         <v>2013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
@@ -2076,10 +2082,10 @@
         <v>2967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -2091,10 +2097,10 @@
         <v>4980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -2153,7 +2159,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2165,13 +2171,13 @@
         <v>4143</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2180,13 +2186,13 @@
         <v>3038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2195,13 +2201,13 @@
         <v>7181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2222,13 @@
         <v>4023</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2231,13 +2237,13 @@
         <v>6795</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2246,13 +2252,13 @@
         <v>10818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2314,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2320,7 +2326,7 @@
         <v>2052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
@@ -2335,10 +2341,10 @@
         <v>4289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -2350,10 +2356,10 @@
         <v>6341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -2371,7 +2377,7 @@
         <v>1132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -2386,13 +2392,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2401,13 +2407,13 @@
         <v>2101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2481,13 @@
         <v>14297</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2490,13 +2496,13 @@
         <v>36753</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -2505,13 +2511,13 @@
         <v>51049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2532,13 @@
         <v>14468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -2541,13 +2547,13 @@
         <v>24816</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -2556,13 +2562,13 @@
         <v>39285</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2624,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C081A3-3D06-49E7-9E59-739A725D7B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31E091-020F-4618-B588-E0BB6E957B22}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2659,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2766,13 +2772,13 @@
         <v>1442</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2781,13 +2787,13 @@
         <v>4190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2796,13 +2802,13 @@
         <v>5631</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,10 +2823,10 @@
         <v>3782</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -2832,13 +2838,13 @@
         <v>3057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2847,13 +2853,13 @@
         <v>6839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
@@ -2939,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -2954,7 +2960,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>18</v>
@@ -2978,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2993,7 +2999,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3008,7 +3014,7 @@
         <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3082,7 @@
         <v>1993</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
@@ -3097,7 +3103,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3106,13 +3112,13 @@
         <v>1992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3133,7 @@
         <v>865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
@@ -3145,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -3157,10 +3163,10 @@
         <v>2865</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3234,7 +3240,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
@@ -3246,13 +3252,13 @@
         <v>3073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3261,13 +3267,13 @@
         <v>4046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3297,13 +3303,13 @@
         <v>8432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3312,13 +3318,13 @@
         <v>8432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,10 +3405,10 @@
         <v>3159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3414,10 +3420,10 @@
         <v>3159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3448,13 +3454,13 @@
         <v>1030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3463,13 +3469,13 @@
         <v>1030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,7 +3541,7 @@
         <v>1613</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
@@ -3550,13 +3556,13 @@
         <v>1259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3565,13 +3571,13 @@
         <v>2872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3592,7 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
@@ -3601,10 +3607,10 @@
         <v>3506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3616,10 +3622,10 @@
         <v>4499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3690,7 +3696,7 @@
         <v>912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
@@ -3705,13 +3711,13 @@
         <v>1112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3720,13 +3726,13 @@
         <v>2024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3747,7 @@
         <v>3266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -3756,10 +3762,10 @@
         <v>10906</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>16</v>
@@ -3771,10 +3777,10 @@
         <v>14171</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3845,13 +3851,13 @@
         <v>2881</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3860,13 +3866,13 @@
         <v>4479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3875,13 +3881,13 @@
         <v>7361</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,10 +3902,10 @@
         <v>4635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -3911,13 +3917,13 @@
         <v>5644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3926,13 +3932,13 @@
         <v>10278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4006,13 @@
         <v>11863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4015,13 +4021,13 @@
         <v>21158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -4030,13 +4036,13 @@
         <v>33021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4057,13 @@
         <v>13541</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -4066,13 +4072,13 @@
         <v>34574</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4081,13 +4087,13 @@
         <v>48115</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4149,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A81597-36A2-44E1-9B9A-BF501A38B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD64A29-F8A4-41A8-9970-17496D98048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5062447F-A2D6-4BC1-8C5B-AE52492FE266}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC1EF33A-A759-47CC-8FB1-F6FBC332E87B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="227">
   <si>
     <t>Población cuya colitis le limita en 2012 (Tasa respuesta: 1,23%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>79,85%</t>
   </si>
   <si>
-    <t>19,97%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>69,09%</t>
+    <t>61,29%</t>
   </si>
   <si>
     <t>20,15%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,03%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>7,57%</t>
   </si>
   <si>
-    <t>30,91%</t>
+    <t>38,71%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -132,25 +132,25 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>75,31%</t>
+    <t>67,6%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>63,09%</t>
+    <t>67,47%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>24,69%</t>
+    <t>32,4%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>36,91%</t>
+    <t>32,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,19 +162,19 @@
     <t>76,89%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -183,19 +183,19 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -207,19 +207,16 @@
     <t>49,95%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>37,02%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -228,19 +225,16 @@
     <t>50,05%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>88,72%</t>
   </si>
   <si>
     <t>62,98%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -258,7 +252,7 @@
     <t>29,04%</t>
   </si>
   <si>
-    <t>72,47%</t>
+    <t>70,94%</t>
   </si>
   <si>
     <t>64,93%</t>
@@ -273,7 +267,7 @@
     <t>70,96%</t>
   </si>
   <si>
-    <t>27,53%</t>
+    <t>29,06%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -291,19 +285,19 @@
     <t>30,89%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
   </si>
   <si>
     <t>49,26%</t>
@@ -318,19 +312,19 @@
     <t>69,11%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -348,7 +342,7 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>35,56%</t>
@@ -363,67 +357,67 @@
     <t>24,89%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>58,84%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población cuya colitis le limita en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>27,6%</t>
@@ -435,19 +429,19 @@
     <t>57,82%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>72,4%</t>
@@ -459,19 +453,19 @@
     <t>42,18%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -516,19 +510,19 @@
     <t>26,71%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -537,19 +531,19 @@
     <t>73,29%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>75,41%</t>
@@ -570,13 +564,13 @@
     <t>26,43%</t>
   </si>
   <si>
-    <t>93,77%</t>
+    <t>81,23%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>81,19%</t>
+    <t>87,6%</t>
   </si>
   <si>
     <t>38,11%</t>
@@ -585,13 +579,13 @@
     <t>73,57%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>18,77%</t>
   </si>
   <si>
     <t>61,03%</t>
   </si>
   <si>
-    <t>18,81%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>21,83%</t>
@@ -600,13 +594,13 @@
     <t>9,25%</t>
   </si>
   <si>
-    <t>38,48%</t>
+    <t>37,43%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>38,12%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>78,17%</t>
@@ -615,115 +609,115 @@
     <t>90,75%</t>
   </si>
   <si>
-    <t>61,52%</t>
+    <t>62,57%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>62,14%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>85,17%</t>
+    <t>86,02%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>14,83%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>58,27%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C59EE71-4283-429B-81B6-B3E0498C00F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A36D52-05F6-402D-A810-0DC2E6666F9C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,7 +1876,7 @@
         <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1891,13 +1885,13 @@
         <v>4702</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -1927,13 +1921,13 @@
         <v>4711</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1942,13 +1936,13 @@
         <v>7997</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,7 +1998,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2016,7 +2010,7 @@
         <v>1087</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
@@ -2031,13 +2025,13 @@
         <v>951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2046,13 +2040,13 @@
         <v>2038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2061,7 @@
         <v>2013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
@@ -2082,10 +2076,10 @@
         <v>2967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -2097,10 +2091,10 @@
         <v>4980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -2159,7 +2153,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2171,13 +2165,13 @@
         <v>4143</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2186,13 +2180,13 @@
         <v>3038</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2201,13 +2195,13 @@
         <v>7181</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2216,13 @@
         <v>4023</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2237,13 +2231,13 @@
         <v>6795</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2252,13 +2246,13 @@
         <v>10818</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2308,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2326,7 +2320,7 @@
         <v>2052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
@@ -2341,10 +2335,10 @@
         <v>4289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -2356,10 +2350,10 @@
         <v>6341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -2377,7 +2371,7 @@
         <v>1132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -2392,13 +2386,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2407,13 +2401,13 @@
         <v>2101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2475,13 @@
         <v>14297</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2496,13 +2490,13 @@
         <v>36753</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -2511,13 +2505,13 @@
         <v>51049</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2526,13 @@
         <v>14468</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -2547,13 +2541,13 @@
         <v>24816</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -2562,13 +2556,13 @@
         <v>39285</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2618,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31E091-020F-4618-B588-E0BB6E957B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B2C6B-CBFA-4710-AC68-7B5BD415180C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,7 +2659,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2772,13 +2766,13 @@
         <v>1442</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2787,13 +2781,13 @@
         <v>4190</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2802,13 +2796,13 @@
         <v>5631</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,10 +2817,10 @@
         <v>3782</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -2838,13 +2832,13 @@
         <v>3057</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2853,13 +2847,13 @@
         <v>6839</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2924,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
@@ -2945,7 +2939,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -2960,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>18</v>
@@ -2984,7 +2978,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2999,7 +2993,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3014,7 +3008,7 @@
         <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3076,7 @@
         <v>1993</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
@@ -3103,7 +3097,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3112,13 +3106,13 @@
         <v>1992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
         <v>865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
@@ -3151,7 +3145,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -3163,10 +3157,10 @@
         <v>2865</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3240,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
@@ -3252,13 +3246,13 @@
         <v>3073</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3267,13 +3261,13 @@
         <v>4046</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,7 +3288,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3303,13 +3297,13 @@
         <v>8432</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3318,13 +3312,13 @@
         <v>8432</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,10 +3399,10 @@
         <v>3159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3420,10 +3414,10 @@
         <v>3159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3454,13 +3448,13 @@
         <v>1030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3469,13 +3463,13 @@
         <v>1030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,7 +3523,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3541,7 +3535,7 @@
         <v>1613</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
@@ -3556,13 +3550,13 @@
         <v>1259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3571,13 +3565,13 @@
         <v>2872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3586,7 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
@@ -3607,10 +3601,10 @@
         <v>3506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3622,10 +3616,10 @@
         <v>4499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3684,7 +3678,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3696,7 +3690,7 @@
         <v>912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
@@ -3711,13 +3705,13 @@
         <v>1112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3726,13 +3720,13 @@
         <v>2024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3741,7 @@
         <v>3266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -3762,10 +3756,10 @@
         <v>10906</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>16</v>
@@ -3777,10 +3771,10 @@
         <v>14171</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3839,7 +3833,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3851,13 +3845,13 @@
         <v>2881</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3866,13 +3860,13 @@
         <v>4479</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3881,13 +3875,13 @@
         <v>7361</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,10 +3896,10 @@
         <v>4635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -3917,13 +3911,13 @@
         <v>5644</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3932,13 +3926,13 @@
         <v>10278</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4000,13 @@
         <v>11863</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4021,13 +4015,13 @@
         <v>21158</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -4036,13 +4030,13 @@
         <v>33021</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4051,13 @@
         <v>13541</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -4072,13 +4066,13 @@
         <v>34574</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4087,13 +4081,13 @@
         <v>48115</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4143,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
